--- a/Experimental_results_Task2&4.xlsx
+++ b/Experimental_results_Task2&4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\IIT_Gandhinagar_RI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\IITG_Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563417C7-BB18-4452-948F-2C91D463D327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79035C4-F695-4B6E-91B0-3F5317162A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{76CBAE25-1BA3-4521-9452-804BF916FE75}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="23">
   <si>
     <t>Task 2</t>
   </si>
@@ -88,13 +88,19 @@
   </si>
   <si>
     <t>LOSO-CV(Test) (k = 5)</t>
+  </si>
+  <si>
+    <t>Task 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After Reducing the features </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +147,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -162,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,6 +192,19 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,24 +519,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481BEC7E-151A-43DE-AE4F-FB9F7E1B8C94}">
-  <dimension ref="A3:K39"/>
+  <dimension ref="A3:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.44140625" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="9.77734375" customWidth="1"/>
+    <col min="21" max="21" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -542,8 +578,39 @@
       <c r="K5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -575,8 +642,39 @@
       <c r="K6" s="3">
         <v>0.90249999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="R6" s="11">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="S6" s="11">
+        <v>0.94110000000000005</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" s="13">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="W6" s="13">
+        <v>0.89339999999999997</v>
+      </c>
+      <c r="X6" s="13">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>0.85919999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -608,8 +706,39 @@
       <c r="K7" s="3">
         <v>0.84630000000000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="13">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="W7" s="13">
+        <v>0.76880000000000004</v>
+      </c>
+      <c r="X7" s="13">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>0.74309999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -641,8 +770,39 @@
       <c r="K8" s="3">
         <v>0.93469999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0.92889999999999995</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="13">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="W8" s="13">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="X8" s="13">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>0.86739999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -674,14 +834,49 @@
       <c r="K9" s="3">
         <v>0.21790000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0.60870000000000002</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="S9" s="11">
+        <v>0.58879999999999999</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="13">
+        <v>0.58760000000000001</v>
+      </c>
+      <c r="W9" s="13">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="X9" s="13">
+        <v>0.58760000000000001</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>0.56559999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -713,8 +908,39 @@
       <c r="K13" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -746,8 +972,39 @@
       <c r="K14" s="3">
         <v>0.90529999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0.95209999999999995</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" s="5">
+        <v>0.86609999999999998</v>
+      </c>
+      <c r="W14" s="5">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0.86609999999999998</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>0.86180000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -779,8 +1036,39 @@
       <c r="K15" s="3">
         <v>0.8175</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0.84519999999999995</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="5">
+        <v>0.69830000000000003</v>
+      </c>
+      <c r="W15" s="5">
+        <v>0.71060000000000001</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0.69830000000000003</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>0.69379999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -812,8 +1100,39 @@
       <c r="K16" s="3">
         <v>0.9204</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.93789999999999996</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.93789999999999996</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V16" s="5">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="W16" s="5">
+        <v>0.85660000000000003</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>0.82550000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -845,14 +1164,49 @@
       <c r="K17" s="3">
         <v>0.25169999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0.52769999999999995</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0.56369999999999998</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0.52769999999999995</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V17" s="5">
+        <v>0.50439999999999996</v>
+      </c>
+      <c r="W17" s="5">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0.50439999999999996</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>0.49159999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -868,8 +1222,23 @@
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -885,8 +1254,23 @@
       <c r="E20" s="3">
         <v>0.92490000000000006</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0.8962</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0.8962</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0.89610000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -902,8 +1286,23 @@
       <c r="E21" s="3">
         <v>0.85729999999999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0.76129999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
@@ -919,8 +1318,23 @@
       <c r="E22" s="3">
         <v>0.96079999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0.88429999999999997</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0.88170000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
@@ -936,13 +1350,28 @@
       <c r="E23" s="3">
         <v>0.21279999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="O23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0.60019999999999996</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0.51019999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="21" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>15</v>
       </c>
@@ -959,7 +1388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -976,7 +1405,7 @@
         <v>0.94640000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
@@ -993,7 +1422,7 @@
         <v>0.90390000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
